--- a/projectPieChart.xlsx
+++ b/projectPieChart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e4b280fed0c571d9/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e4b280fed0c571d9/Desktop/Group3Project1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5060830A-ED10-4B18-BBE9-CDA2A3CDC820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{5060830A-ED10-4B18-BBE9-CDA2A3CDC820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C5EC14D-E8DA-448E-8AA6-723DDD5A57D4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{BA2ABADC-78F1-4443-B39E-0E2CBE7CE81E}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -305,6 +305,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-80E6-4973-AE8F-16D5DDB5C5AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -320,6 +325,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-80E6-4973-AE8F-16D5DDB5C5AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -335,6 +345,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-80E6-4973-AE8F-16D5DDB5C5AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -350,6 +365,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-80E6-4973-AE8F-16D5DDB5C5AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -365,6 +385,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-80E6-4973-AE8F-16D5DDB5C5AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -380,6 +405,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-80E6-4973-AE8F-16D5DDB5C5AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -397,6 +427,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-80E6-4973-AE8F-16D5DDB5C5AD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1121,15 +1156,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1208,7 +1243,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D131D955-C74E-4CC1-A12E-C001DAC4D008}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D131D955-C74E-4CC1-A12E-C001DAC4D008}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="2">
     <pivotField showAll="0"/>
@@ -1631,7 +1666,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
